--- a/power_plant_power_calculated_Q_values_Antalya_Merkez.xlsx
+++ b/power_plant_power_calculated_Q_values_Antalya_Merkez.xlsx
@@ -445,28 +445,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-3570571.112500001</v>
+        <v>344798.8235416667</v>
       </c>
       <c r="C2">
-        <v>-3317545.40625</v>
+        <v>10519.03938541665</v>
       </c>
       <c r="D2">
-        <v>-3841523.775</v>
+        <v>210428.8332291667</v>
       </c>
       <c r="E2">
-        <v>-3625946.85625</v>
+        <v>-181787.1392552083</v>
       </c>
       <c r="F2">
-        <v>-3211590.287500001</v>
+        <v>339559.1893750001</v>
       </c>
       <c r="G2">
-        <v>-2969767.90625</v>
+        <v>48709.14909374995</v>
       </c>
       <c r="H2">
-        <v>-3842415.66875</v>
+        <v>300592.0542708334</v>
       </c>
       <c r="I2">
-        <v>-3601201.325</v>
+        <v>-79644.76043229167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -474,28 +474,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-3623530.987500001</v>
+        <v>59525.12097222229</v>
       </c>
       <c r="C3">
-        <v>-3345309.700000001</v>
+        <v>-214712.0077986112</v>
       </c>
       <c r="D3">
-        <v>-3887139.9625</v>
+        <v>-75605.15256944447</v>
       </c>
       <c r="E3">
-        <v>-3642621.9375</v>
+        <v>-402817.3490590279</v>
       </c>
       <c r="F3">
-        <v>-3261442.3375</v>
+        <v>79003.90041666671</v>
       </c>
       <c r="G3">
-        <v>-2997532.2</v>
+        <v>-158152.8977708335</v>
       </c>
       <c r="H3">
-        <v>-3894376.600000001</v>
+        <v>2810.677569444398</v>
       </c>
       <c r="I3">
-        <v>-3624858.850000001</v>
+        <v>-312249.6640659721</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -503,28 +503,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-3965486.875</v>
+        <v>-731151.0106250001</v>
       </c>
       <c r="C4">
-        <v>-3518840.5</v>
+        <v>-769655.0152812501</v>
       </c>
       <c r="D4">
-        <v>-4181066.875</v>
+        <v>-833905.3409375001</v>
       </c>
       <c r="E4">
-        <v>-3745449.0625</v>
+        <v>-900361.758546875</v>
       </c>
       <c r="F4">
-        <v>-3582975.375</v>
+        <v>-649507.9631249999</v>
       </c>
       <c r="G4">
-        <v>-3171063</v>
+        <v>-677615.6999062501</v>
       </c>
       <c r="H4">
-        <v>-4231670.75</v>
+        <v>-809292.1028125002</v>
       </c>
       <c r="I4">
-        <v>-3773305.0625</v>
+        <v>-864283.212390625</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-4369504.125</v>
+        <v>-1607562.865416667</v>
       </c>
       <c r="C5">
-        <v>-3723956.95</v>
+        <v>-1376306.879354167</v>
       </c>
       <c r="D5">
-        <v>-4527078.625</v>
+        <v>-1668790.577291667</v>
       </c>
       <c r="E5">
-        <v>-3860786.3125</v>
+        <v>-1431241.471947917</v>
       </c>
       <c r="F5">
-        <v>-3962130.025</v>
+        <v>-1457113.53375</v>
       </c>
       <c r="G5">
-        <v>-3376179.45</v>
+        <v>-1246915.4324375</v>
       </c>
       <c r="H5">
-        <v>-4625920.55</v>
+        <v>-1703401.310208334</v>
       </c>
       <c r="I5">
-        <v>-3943791.4625</v>
+        <v>-1459650.108677084</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-3824651.662500001</v>
+        <v>183638.9175</v>
       </c>
       <c r="C13">
-        <v>-3445489.487500001</v>
+        <v>-38442.49450000002</v>
       </c>
       <c r="D13">
-        <v>-4060054.3</v>
+        <v>88060.37</v>
       </c>
       <c r="E13">
-        <v>-3702701.05</v>
+        <v>-176803.5805</v>
       </c>
       <c r="F13">
-        <v>-3450575.6875</v>
+        <v>184850.6524999998</v>
       </c>
       <c r="G13">
-        <v>-3097711.9875</v>
+        <v>-7599.598500000049</v>
       </c>
       <c r="H13">
-        <v>-4094149.49375</v>
+        <v>147181.2362499999</v>
       </c>
       <c r="I13">
-        <v>-3711703.53125</v>
+        <v>-106572.41075</v>
       </c>
     </row>
   </sheetData>
